--- a/data/education_breakdown.xlsx
+++ b/data/education_breakdown.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toddf\Documents\New NSS\DA9 Excel\norris_capstone\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26AC83CB-6C38-4FC7-A36A-C29E61DB7CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4D0A8F-770C-4ED4-9C7E-4A6A90094ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="420" windowWidth="20460" windowHeight="14595" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2520" yWindow="210" windowWidth="18285" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Has MLB Team" sheetId="5" r:id="rId1"/>
@@ -691,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5D7444-1CEE-4DA4-825A-DD57E37B5C95}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,6 +919,12 @@
       </c>
       <c r="B27" s="2">
         <v>0.31709999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="2">
+        <f>AVERAGE(B2:B27)</f>
+        <v>0.21346538461538464</v>
       </c>
     </row>
   </sheetData>
@@ -1038,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46A90AD9-E330-408B-80D5-14B49078DFFC}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,7 +1058,7 @@
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>36</v>
       </c>
@@ -1066,7 +1072,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>40</v>
       </c>
@@ -1080,7 +1086,7 @@
         <v>0.2893</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>43</v>
       </c>
@@ -1094,7 +1100,7 @@
         <v>0.151</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>45</v>
       </c>
@@ -1108,7 +1114,7 @@
         <v>0.26400000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>47</v>
       </c>
@@ -1122,7 +1128,7 @@
         <v>0.20660000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>49</v>
       </c>
@@ -1136,7 +1142,7 @@
         <v>0.1973</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>51</v>
       </c>
@@ -1149,8 +1155,9 @@
       <c r="D7" s="2">
         <v>0.11070000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>52</v>
       </c>
@@ -1164,7 +1171,7 @@
         <v>0.18940000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>54</v>
       </c>
@@ -1178,7 +1185,7 @@
         <v>0.28160000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>56</v>
       </c>
@@ -1192,7 +1199,7 @@
         <v>6.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>58</v>
       </c>
@@ -1206,7 +1213,7 @@
         <v>0.17269999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>59</v>
       </c>
@@ -1220,7 +1227,7 @@
         <v>0.1777</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>61</v>
       </c>
@@ -1234,7 +1241,7 @@
         <v>0.18579999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>63</v>
       </c>
@@ -1248,7 +1255,7 @@
         <v>0.19789999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>65</v>
       </c>
@@ -1262,7 +1269,7 @@
         <v>0.11869999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>67</v>
       </c>
